--- a/articles/read/summaries_articles.xlsx
+++ b/articles/read/summaries_articles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Article</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
   </si>
   <si>
     <t xml:space="preserve">Can a Network Attack Be Simulated in an Emulated Environment for Network Security Training?</t>
@@ -251,6 +254,9 @@
       </rPr>
       <t xml:space="preserve">; CLI; white traffic; </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://res.mdpi.com/jsan/jsan-06-00016/article_deploy/jsan-06-00016.pdf?filename=&amp;attachment=1</t>
   </si>
   <si>
     <t xml:space="preserve">Packet generation and network based attacks with
@@ -262,6 +268,77 @@
   </si>
   <si>
     <t xml:space="preserve">Python; forged packet;  sniffing; malformed packet; spoofed packet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scapy.net/conf/scapy_csw05.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosted Penetration Testing Virtual Labs by Offensive Security Offensive Security</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Offensive security offers network labs to learn penetration and have an experience near reality. Here they explain their labs implementation and why it is good for training. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Offensive security provide training and certificate related in penetration testing.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen testing labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.offensive-security.com/offensive-security-solutions/virtual-penetration-testing-labs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CyRIS: A Cyber Range Instantiation System for Facilitating
+Security Training
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyris is a tool to create and manage an environment for cybersecurity tests. The document describe the design and the implementation of such tool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybersecurity testing; Virtualisation; Attack emulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jaist.ac.jp/~razvan/publications/cyris_facilitating_training.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNS3 Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation to setup a virtual network with GNS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.gns3.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome Penetration Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe as “A collection of awesome penetration testing resources.” it contains documentation about tools/ books and more for pen-testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen-testing; Books; Tools; Databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/enaqx/awesome-pentest</t>
   </si>
 </sst>
 </file>
@@ -271,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -297,8 +374,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="URWPalladioL"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -314,6 +391,12 @@
       <name val="URWPalladioL"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,12 +441,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,7 +458,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,11 +466,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,446 +551,505 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="89.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="89.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="36.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="121.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="4" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://res.mdpi.com/jsan/jsan-06-00016/article_deploy/jsan-06-00016.pdf?filename=&amp;attachment=1"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://scapy.net/conf/scapy_csw05.pdf"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.offensive-security.com/offensive-security-solutions/virtual-penetration-testing-labs/"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.jaist.ac.jp/~razvan/publications/cyris_facilitating_training.pdf"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://docs.gns3.com/"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://github.com/enaqx/awesome-pentest"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
